--- a/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
+++ b/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\heavierFluidOutputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC2073-1F90-44D9-A898-3F2FF112953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D602775E-1B24-45FB-8DB1-2608831FA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1965" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fun_core" sheetId="1" r:id="rId1"/>

--- a/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
+++ b/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\heavierFluidOutputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D602775E-1B24-45FB-8DB1-2608831FA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A961A-EC97-4A4B-BEDE-1C9BDCA01857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fun_core" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="258">
   <si>
     <t>Flow</t>
   </si>
@@ -467,9 +467,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>BASE::SBF_nom_lvl"; # USER TODO: define value</t>
-  </si>
-  <si>
     <t>BASE::SBF_nom_lvl</t>
   </si>
   <si>
@@ -479,13 +476,7 @@
     <t>BASE::SBF_max_lvl</t>
   </si>
   <si>
-    <t>BASE::SHMOO_nom_lvl"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>BASE::SBF_max_lvl"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>BASE::cpu_ctf_timing_tclk100_cclk100_bclk400"; # USER TODO: define value</t>
+    <t>BASE::SHMOO_nom_lvl</t>
   </si>
   <si>
     <t>BASE::cpu_ctf_timing_tclk100_cclk100_bclk400</t>
@@ -506,7 +497,7 @@
     <t>fullchip_dragon_full_list</t>
   </si>
   <si>
-    <t>func_i_drng_sort_list"; # USER TODO: define value</t>
+    <t>func_i_drng_sort_list</t>
   </si>
   <si>
     <t>func_drng_sort_CMEM_metrics_noxor_list</t>
@@ -521,7 +512,7 @@
     <t>func_i_drng_sort_CMEM_mode_change_list</t>
   </si>
   <si>
-    <t>func_fuse_drng_sort_list"; # USER TODO: define value</t>
+    <t>func_fuse_drng_sort_list</t>
   </si>
   <si>
     <t>func_fuse_drng_sort_CMEM_metrics_noxor_list</t>
@@ -536,13 +527,13 @@
     <t>func_fuse_drng_CMEM_mode_change_list</t>
   </si>
   <si>
-    <t>bist_nap_end_list"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>bist_idi_end_list"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>bist_ring_end_list"; # USER TODO: define value</t>
+    <t>bist_nap_end_list</t>
+  </si>
+  <si>
+    <t>bist_idi_end_list</t>
+  </si>
+  <si>
+    <t>bist_ring_end_list</t>
   </si>
   <si>
     <t>mlc_lfm_end_list</t>
@@ -554,13 +545,10 @@
     <t>mlc_dragon_lfm_end_list</t>
   </si>
   <si>
-    <t>mlc_lfm_end_list"; # USER TODO: define value</t>
-  </si>
-  <si>
     <t>mlc_lfm_end_sample_list</t>
   </si>
   <si>
-    <t>bist_corebo_end_list"; # USER TODO: define value</t>
+    <t>bist_corebo_end_list</t>
   </si>
   <si>
     <t>99</t>
@@ -797,25 +785,25 @@
     <t>disable_masked_targets,recovery_update_always</t>
   </si>
   <si>
-    <t>./Modules/FUN_CORE/InputFiles/fun_core.setpoints.json"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>./Modules/FUN_CORE/InputFiles/fun_core_patmod.json"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>./Modules/FUN_CORE/InputFiles/nap_bist_config.csv"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>FN_SLC,FN_SLC_SW,FN_SLC_SW_CTF100,FN_SLC_SUBR,FN_SLC_SUBR_CTF100,FN_SLC_DW,FN_SLC_DW_CTF100,FN_SLC_TTR,FN_SLC_TTR_CTF100"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>DRNG_fuse"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>SetPoint1"; # USER TODO: define value</t>
-  </si>
-  <si>
-    <t>test"; # USER TODO: define value</t>
+    <t>./Modules/FUN_CORE/InputFiles/fun_core.setpoints.json</t>
+  </si>
+  <si>
+    <t>./Modules/FUN_CORE/InputFiles/fun_core_patmod.json</t>
+  </si>
+  <si>
+    <t>./Modules/FUN_CORE/InputFiles/nap_bist_config.csv</t>
+  </si>
+  <si>
+    <t>FN_SLC,FN_SLC_SW,FN_SLC_SW_CTF100,FN_SLC_SUBR,FN_SLC_SUBR_CTF100,FN_SLC_DW,FN_SLC_DW_CTF100,FN_SLC_TTR,FN_SLC_TTR_CTF100</t>
+  </si>
+  <si>
+    <t>DRNG_fuse</t>
+  </si>
+  <si>
+    <t>SetPoint1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>HEALTH_COUNT</t>
@@ -1397,10 +1385,10 @@
         <v>95</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
@@ -1455,48 +1443,48 @@
         <v>143</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="3" t="str">
         <f>$C5</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_FCS_</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1547,48 +1535,48 @@
         <v>143</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="T5" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="3" t="str">
         <f>$C6</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_DTS_</v>
       </c>
       <c r="AP5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1639,47 +1627,47 @@
         <v>143</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AP6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1714,10 +1702,10 @@
         <v>95</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
@@ -1738,20 +1726,20 @@
         <v>95</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB9" s="2" t="str">
         <f>$C15</f>
@@ -1803,41 +1791,41 @@
         <v>144</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA10" s="5" t="str">
         <f t="shared" ref="AA10:AF12" si="1">$C11</f>
@@ -1864,19 +1852,19 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1924,41 +1912,41 @@
         <v>144</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="Q11" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1985,19 +1973,19 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AL11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AM11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="AO11" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2045,41 +2033,41 @@
         <v>144</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W12" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X12" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y12" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2106,19 +2094,19 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,74 +2154,74 @@
         <v>144</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="V13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="X13" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y13" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2268,23 +2256,23 @@
         <v>95</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2332,41 +2320,41 @@
         <v>144</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y16" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA16" s="5" t="str">
         <f t="shared" ref="AA16:AF16" si="2">$C39</f>
@@ -2393,19 +2381,19 @@
         <v>BIST_SDTEND</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2422,17 +2410,17 @@
         <v>95</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA17" s="2" t="str">
         <f>$C28</f>
@@ -2488,41 +2476,41 @@
         <v>144</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y18" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="5" t="str">
         <f>$C22</f>
@@ -2575,44 +2563,44 @@
         <v>130</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X19" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y19" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA19" s="5" t="str">
         <f t="shared" ref="AA19:AC20" si="4">$C20</f>
@@ -2672,44 +2660,44 @@
         <v>131</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="V20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="X20" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y20" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA20" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2724,7 +2712,7 @@
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="AR20" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2769,44 +2757,44 @@
         <v>132</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y21" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA21" s="5" t="str">
         <f>$C23</f>
@@ -2866,44 +2854,44 @@
         <v>133</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y22" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="5" t="str">
         <f>$C19</f>
@@ -2960,44 +2948,44 @@
         <v>130</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y23" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA23" s="5" t="str">
         <f t="shared" ref="AA23:AC25" si="5">$C24</f>
@@ -3057,44 +3045,44 @@
         <v>131</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y24" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3109,7 +3097,7 @@
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="AR24" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3154,44 +3142,44 @@
         <v>130</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W25" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X25" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y25" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3251,56 +3239,56 @@
         <v>131</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U26" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="V26" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="X26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y26" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AR26" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3335,23 +3323,23 @@
         <v>95</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3399,41 +3387,41 @@
         <v>144</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="T29" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y29" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA29" s="5" t="str">
         <f>$C33</f>
@@ -3486,44 +3474,44 @@
         <v>130</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W30" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X30" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y30" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="5" t="str">
         <f t="shared" ref="AA30:AC31" si="7">$C31</f>
@@ -3583,44 +3571,44 @@
         <v>131</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="S31" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="V31" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="X31" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y31" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA31" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3635,7 +3623,7 @@
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="AR31" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3680,44 +3668,44 @@
         <v>132</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y32" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="5" t="str">
         <f>$C35</f>
@@ -3777,44 +3765,44 @@
         <v>133</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y33" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="5" t="str">
         <f>$C30</f>
@@ -3871,53 +3859,53 @@
         <v>130</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U34" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W34" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="V34" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="X34" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y34" s="5">
         <f t="shared" ref="Y34:Y65" si="8">COUNTA(AA34:AJ34)</f>
         <v>3</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AR34" s="5" t="s">
         <v>130</v>
@@ -3965,44 +3953,44 @@
         <v>131</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R35" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="S35" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y35" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" ref="AA35:AC36" si="9">$C36</f>
@@ -4017,7 +4005,7 @@
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="AR35" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4062,44 +4050,44 @@
         <v>130</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y36" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA36" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4159,44 +4147,44 @@
         <v>131</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="R37" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="S37" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W37" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W37" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X37" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y37" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA37" s="5" t="str">
         <f>$C34</f>
@@ -4211,7 +4199,7 @@
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="AR37" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4246,17 +4234,17 @@
         <v>95</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA39" s="2" t="str">
         <f>$C17</f>
@@ -4312,44 +4300,44 @@
         <v>144</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S40" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S40" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="T40" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB40" s="5" t="str">
         <f>$C41</f>
@@ -4401,44 +4389,44 @@
         <v>144</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S41" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S41" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="T41" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB41" s="5" t="str">
         <f>$C42</f>
@@ -4490,47 +4478,47 @@
         <v>144</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S42" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="T42" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="W42" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="X42" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4601,10 +4589,10 @@
         <v>95</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="8"/>
@@ -4625,17 +4613,17 @@
         <v>95</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA47" s="2" t="str">
         <f>$C60</f>
@@ -4691,41 +4679,41 @@
         <v>144</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q48" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S48" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="T48" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W48" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y48" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA48" s="6" t="str">
         <f t="shared" ref="AA48:AF48" si="10">$C57</f>
@@ -4752,16 +4740,16 @@
         <v>SBFT_X_SAMPLE_E_END_X_X_X_X_MLC_TOPOFF_SAMPLER</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AL48" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM48" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4809,41 +4797,41 @@
         <v>144</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U49" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W49" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="V49" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="W49" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="X49" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y49" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA49" s="6" t="str">
         <f t="shared" ref="AA49:AF50" si="11">$C50</f>
@@ -4870,16 +4858,16 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL49" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM49" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN49" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4927,41 +4915,41 @@
         <v>144</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W50" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y50" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA50" s="6" t="str">
         <f t="shared" si="11"/>
@@ -4988,19 +4976,19 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="AK50" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AL50" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM50" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN50" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO50" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5048,74 +5036,74 @@
         <v>144</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W51" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM51" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN51" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO51" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5132,23 +5120,23 @@
         <v>95</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5202,35 +5190,35 @@
         <v>143</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W53" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y53" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA53" s="6" t="str">
         <f>$C54</f>
@@ -5241,10 +5229,10 @@
         <v>SBFT_CORE_FUNC_E_END_X_CR_NOM_LFM_0800_DEBUG</v>
       </c>
       <c r="AP53" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AQ53" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5292,41 +5280,41 @@
         <v>144</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y54" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA54" s="6" t="str">
         <f>$C55</f>
@@ -5379,56 +5367,56 @@
         <v>138</v>
       </c>
       <c r="N55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O55" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O55" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="P55" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W55" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W55" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="X55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y55" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5500,38 +5488,38 @@
         <v>143</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R57" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="S57" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S57" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="T57" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W57" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y57" s="6">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="6" t="str">
         <f>$C58</f>
@@ -5587,41 +5575,41 @@
         <v>144</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S58" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="T58" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U58" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W58" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W58" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="X58" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA58" s="6" t="str">
         <f t="shared" ref="AA58:AF58" si="12">$C49</f>
@@ -5648,16 +5636,16 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AL58" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AN58" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5692,23 +5680,23 @@
         <v>95</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5756,41 +5744,41 @@
         <v>144</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V61" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W61" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y61" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA61" s="6" t="str">
         <f t="shared" ref="AA61:AF61" si="13">$C62</f>
@@ -5817,19 +5805,19 @@
         <v>BIST</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AL61" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM61" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN61" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AO61" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5846,17 +5834,17 @@
         <v>95</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA62" s="2" t="str">
         <f>$C68</f>
@@ -5912,41 +5900,41 @@
         <v>144</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y63" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA63" s="6" t="str">
         <f>$C64</f>
@@ -6002,41 +5990,41 @@
         <v>144</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W64" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X64" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y64" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA64" s="6" t="str">
         <f>$C66</f>
@@ -6092,41 +6080,41 @@
         <v>144</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W65" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X65" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y65" s="6">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z65" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA65" s="6" t="str">
         <f>$C63</f>
@@ -6141,7 +6129,7 @@
         <v>SBFT_CORE_FUNC_K_END_X_CR_NOM_LFM_0400_IDI_BIST</v>
       </c>
       <c r="AP65" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6189,47 +6177,47 @@
         <v>144</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R66" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="Q66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="S66" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W66" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W66" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="X66" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y66" s="6">
         <f t="shared" ref="Y66:Y97" si="14">COUNTA(AA66:AJ66)</f>
         <v>2</v>
       </c>
       <c r="Z66" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6264,17 +6252,17 @@
         <v>95</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA68" s="2" t="str">
         <f>$C79</f>
@@ -6330,38 +6318,38 @@
         <v>144</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y69" s="6">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA69" s="6" t="str">
         <f>$C73</f>
@@ -6414,41 +6402,41 @@
         <v>130</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V70" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W70" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W70" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="X70" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y70" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA70" s="6" t="str">
         <f t="shared" ref="AA70:AC71" si="16">$C71</f>
@@ -6508,41 +6496,41 @@
         <v>131</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X71" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y71" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA71" s="6" t="str">
         <f t="shared" si="16"/>
@@ -6557,7 +6545,7 @@
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="AR71" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6602,41 +6590,41 @@
         <v>132</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W72" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X72" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y72" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA72" s="6" t="str">
         <f>$C74</f>
@@ -6696,44 +6684,44 @@
         <v>133</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S73" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="T73" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="T73" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="U73" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W73" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y73" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA73" s="6" t="str">
         <f>$C70</f>
@@ -6790,41 +6778,41 @@
         <v>130</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S74" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="T74" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="T74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="V74" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="W74" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X74" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y74" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA74" s="6" t="str">
         <f t="shared" ref="AA74:AC76" si="17">$C75</f>
@@ -6884,41 +6872,41 @@
         <v>131</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W75" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="X75" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y75" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA75" s="6" t="str">
         <f t="shared" si="17"/>
@@ -6933,7 +6921,7 @@
         <v>DRNG_NC_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="AR75" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6978,41 +6966,41 @@
         <v>130</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W76" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X76" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y76" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="6" t="str">
         <f t="shared" si="17"/>
@@ -7072,53 +7060,53 @@
         <v>131</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W77" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X77" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y77" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AR77" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7153,23 +7141,23 @@
         <v>95</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7217,38 +7205,38 @@
         <v>144</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T80" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W80" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X80" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y80" s="6">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA80" s="6" t="str">
         <f>$C84</f>
@@ -7301,41 +7289,41 @@
         <v>130</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V81" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W81" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W81" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="X81" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y81" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z81" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA81" s="6" t="str">
         <f t="shared" ref="AA81:AC82" si="19">$C82</f>
@@ -7395,41 +7383,41 @@
         <v>131</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q82" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R82" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R82" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="S82" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W82" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X82" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y82" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z82" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA82" s="6" t="str">
         <f t="shared" si="19"/>
@@ -7444,7 +7432,7 @@
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="AR82" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7489,41 +7477,41 @@
         <v>132</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W83" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y83" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z83" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA83" s="6" t="str">
         <f>$C86</f>
@@ -7583,44 +7571,44 @@
         <v>133</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S84" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="T84" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="T84" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="U84" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V84" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W84" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y84" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA84" s="6" t="str">
         <f>$C81</f>
@@ -7677,50 +7665,50 @@
         <v>130</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X85" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y85" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z85" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA85" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AR85" s="6" t="s">
         <v>130</v>
@@ -7768,41 +7756,41 @@
         <v>131</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R86" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R86" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="S86" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W86" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X86" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y86" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z86" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA86" s="6" t="str">
         <f t="shared" ref="AA86:AC87" si="20">$C87</f>
@@ -7817,7 +7805,7 @@
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="AR86" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7862,41 +7850,41 @@
         <v>130</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W87" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X87" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y87" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z87" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA87" s="6" t="str">
         <f t="shared" si="20"/>
@@ -7956,41 +7944,41 @@
         <v>131</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q88" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R88" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R88" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="S88" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W88" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y88" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z88" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA88" s="6" t="str">
         <f>$C85</f>
@@ -8005,7 +7993,7 @@
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="AR88" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8076,10 +8064,10 @@
         <v>95</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="14"/>
@@ -8131,41 +8119,41 @@
         <v>144</v>
       </c>
       <c r="O93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S93" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V93" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y93">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z93" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" ref="AA93:AF93" si="21">$C94</f>
@@ -8192,19 +8180,19 @@
         <v>SBFT_FULLCHIP_VMIN_K_ENDTFM_X_CLR_NOM_TFM_4500_CLR_DRAGON</v>
       </c>
       <c r="AK93" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL93" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AO93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -8252,74 +8240,74 @@
         <v>144</v>
       </c>
       <c r="O94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T94" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X94" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y94">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z94" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AK94" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL94" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN94" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO94" t="s">
         <v>248</v>
-      </c>
-      <c r="AO94" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8354,10 +8342,10 @@
         <v>95</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y96" s="2">
         <f t="shared" si="14"/>
@@ -8378,17 +8366,17 @@
         <v>95</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y97" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA97" s="2" t="str">
         <f>$C102</f>
@@ -8444,41 +8432,41 @@
         <v>144</v>
       </c>
       <c r="O98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T98" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V98" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W98" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X98" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y98">
         <f t="shared" ref="Y98:Y107" si="22">COUNTA(AA98:AJ98)</f>
         <v>6</v>
       </c>
       <c r="Z98" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA98" t="str">
         <f t="shared" ref="AA98:AF99" si="23">$C99</f>
@@ -8505,19 +8493,19 @@
         <v>SBFT_CORE_VMIN_K_ENDXFM_X_CR_NOM_HFM_2000_CR_SLC</v>
       </c>
       <c r="AK98" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN98" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO98" t="s">
         <v>249</v>
-      </c>
-      <c r="AO98" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
@@ -8565,41 +8553,41 @@
         <v>144</v>
       </c>
       <c r="O99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q99" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R99" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T99" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V99" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y99">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA99" t="str">
         <f t="shared" si="23"/>
@@ -8626,19 +8614,19 @@
         <v>SBFT_FULLCHIP_VMIN_K_ENDXFM_X_CLR_NOM_HFM_2000_CLR_DRAGON</v>
       </c>
       <c r="AK99" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL99" t="s">
         <v>229</v>
       </c>
-      <c r="AL99" t="s">
-        <v>233</v>
-      </c>
       <c r="AM99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN99" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AO99" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
@@ -8686,74 +8674,74 @@
         <v>144</v>
       </c>
       <c r="O100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q100" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R100" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="T100" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V100" t="s">
+        <v>199</v>
+      </c>
+      <c r="W100" t="s">
         <v>203</v>
       </c>
-      <c r="W100" t="s">
-        <v>207</v>
-      </c>
       <c r="X100" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y100">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AK100" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL100" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AN100" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AO100" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -8788,23 +8776,23 @@
         <v>95</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y102" s="2">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="Z102" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.25">
@@ -8849,44 +8837,44 @@
         <v>125</v>
       </c>
       <c r="N103" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q103" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R103" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S103" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T103" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y103">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z103" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA103" t="str">
         <f t="shared" ref="AA103:AF103" si="24">$C104</f>
@@ -8913,16 +8901,16 @@
         <v>SBFT_FULLCHIP_SB_K_ENDXFM_X_CLR_MAX_LFM_0800_CLR_DRAGON</v>
       </c>
       <c r="AK103" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL103" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM103" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AO103" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
@@ -8967,74 +8955,74 @@
         <v>129</v>
       </c>
       <c r="N104" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O104" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R104" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S104" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="T104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="W104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y104">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z104" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AK104" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AL104" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM104" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AO104" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
+++ b/lighterFluid/heavierFluidOutputs/lnlBackConvert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\heavierFluidOutputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A961A-EC97-4A4B-BEDE-1C9BDCA01857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D410C-09BD-464A-9596-1011802BFBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="261">
   <si>
     <t>Flow</t>
   </si>
@@ -161,6 +161,9 @@
     <t>ConfigurationFile</t>
   </si>
   <si>
+    <t>testMode</t>
+  </si>
+  <si>
     <t>SetPoint</t>
   </si>
   <si>
@@ -792,6 +795,12 @@
   </si>
   <si>
     <t>./Modules/FUN_CORE/InputFiles/nap_bist_config.csv</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t>FN_SLC,FN_SLC_SW,FN_SLC_SW_CTF100,FN_SLC_SUBR,FN_SLC_SUBR_CTF100,FN_SLC_DW,FN_SLC_DW_CTF100,FN_SLC_TTR,FN_SLC_TTR_CTF100</t>
@@ -1208,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR107"/>
+  <dimension ref="A1:AS107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1219,7 +1228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,480 +1361,492 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y2">
         <f t="shared" ref="Y2:Y33" si="0">COUNTA(AA2:AJ2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;A4&amp;"_"&amp;H4&amp;"_"&amp;I4&amp;"_"&amp;J4&amp;"_"&amp;K4&amp;"_"&amp;L4&amp;"_"&amp;M4</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_IA_</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB4" s="3" t="str">
         <f>$C5</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_FCS_</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;A5&amp;"_"&amp;H5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_FCS_</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB5" s="3" t="str">
         <f>$C6</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_DTS_</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR5" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;A6&amp;"_"&amp;H6&amp;"_"&amp;I6&amp;"_"&amp;J6&amp;"_"&amp;K6&amp;"_"&amp;L6&amp;"_"&amp;M6</f>
         <v>SBFT_CORE_PATMOD_K_INIT_X_X_X_X_DTS_</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR6" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB9" s="2" t="str">
         <f>$C15</f>
         <v>SA_LOGIC_SDTEND</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>D10&amp;"_"&amp;E10&amp;"_"&amp;F10&amp;"_"&amp;G10&amp;"_"&amp;A10&amp;"_"&amp;H10&amp;"_"&amp;I10&amp;"_"&amp;J10&amp;"_"&amp;K10&amp;"_"&amp;L10&amp;"_"&amp;M10</f>
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_MLC</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W10" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA10" s="5" t="str">
         <f t="shared" ref="AA10:AF12" si="1">$C11</f>
@@ -1852,101 +1873,101 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>D11&amp;"_"&amp;E11&amp;"_"&amp;F11&amp;"_"&amp;G11&amp;"_"&amp;A11&amp;"_"&amp;H11&amp;"_"&amp;I11&amp;"_"&amp;J11&amp;"_"&amp;K11&amp;"_"&amp;L11&amp;"_"&amp;M11</f>
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W11" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1973,101 +1994,101 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>D12&amp;"_"&amp;E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;A12&amp;"_"&amp;H12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W12" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y12" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2094,267 +2115,267 @@
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>D13&amp;"_"&amp;E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;A13&amp;"_"&amp;H13&amp;"_"&amp;I13&amp;"_"&amp;J13&amp;"_"&amp;K13&amp;"_"&amp;L13&amp;"_"&amp;M13</f>
         <v>SBFT_CORE_VMIN_K_SDTEND_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V13" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W13" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y13" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>D16&amp;"_"&amp;E16&amp;"_"&amp;F16&amp;"_"&amp;G16&amp;"_"&amp;A16&amp;"_"&amp;H16&amp;"_"&amp;I16&amp;"_"&amp;J16&amp;"_"&amp;K16&amp;"_"&amp;L16&amp;"_"&amp;M16</f>
         <v>SBFT_FULLCHIP_VMIN_K_SDTEND_X_CLR_NOM_LFM_0800_CLR_DRAGON</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V16" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W16" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y16" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA16" s="5" t="str">
         <f t="shared" ref="AA16:AF16" si="2">$C39</f>
@@ -2381,46 +2402,46 @@
         <v>BIST_SDTEND</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA17" s="2" t="str">
         <f>$C28</f>
@@ -2431,86 +2452,86 @@
         <v>FUSEDRNG_SDTEND</v>
       </c>
     </row>
-    <row r="18" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ref="C18:C26" si="3">D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;A18&amp;"_"&amp;H18&amp;"_"&amp;I18&amp;"_"&amp;J18&amp;"_"&amp;K18&amp;"_"&amp;L18&amp;"_"&amp;M18</f>
         <v>DRNG_NC_SB_E_SDTEND_X_CR_NOM_LFM_0800_NOM</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W18" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y18" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA18" s="5" t="str">
         <f>$C22</f>
@@ -2521,86 +2542,86 @@
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
     </row>
-    <row r="19" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V19" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W19" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y19" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA19" s="5" t="str">
         <f t="shared" ref="AA19:AC20" si="4">$C20</f>
@@ -2614,90 +2635,90 @@
         <f t="shared" si="4"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR19" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS19" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V20" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W20" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y20" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA20" s="5" t="str">
         <f t="shared" si="4"/>
@@ -2711,90 +2732,90 @@
         <f t="shared" si="4"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
-      <c r="AR20" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS20" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V21" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W21" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y21" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" s="5" t="str">
         <f>$C23</f>
@@ -2808,90 +2829,90 @@
         <f>$C23</f>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
-      <c r="AR21" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS21" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V22" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V22" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W22" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y22" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA22" s="5" t="str">
         <f>$C19</f>
@@ -2906,86 +2927,86 @@
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
     </row>
-    <row r="23" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V23" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W23" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y23" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA23" s="5" t="str">
         <f t="shared" ref="AA23:AC25" si="5">$C24</f>
@@ -2999,90 +3020,90 @@
         <f t="shared" si="5"/>
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR23" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS23" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V24" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W24" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y24" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA24" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3096,90 +3117,90 @@
         <f t="shared" si="5"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
-      <c r="AR24" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS24" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V25" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W25" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y25" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA25" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3193,235 +3214,235 @@
         <f t="shared" si="5"/>
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR25" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS25" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="3"/>
         <v>DRNG_NC_CMEM_K_SDTEND_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V26" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W26" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y26" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR26" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="AS26" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ref="C29:C37" si="6">D29&amp;"_"&amp;E29&amp;"_"&amp;F29&amp;"_"&amp;G29&amp;"_"&amp;A29&amp;"_"&amp;H29&amp;"_"&amp;I29&amp;"_"&amp;J29&amp;"_"&amp;K29&amp;"_"&amp;L29&amp;"_"&amp;M29</f>
         <v>DRNG_FUSE_SB_E_SDTEND_X_CR_NOM_LFM_0800_NOM</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V29" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W29" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y29" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA29" s="5" t="str">
         <f>$C33</f>
@@ -3432,86 +3453,86 @@
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
     </row>
-    <row r="30" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V30" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W30" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y30" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA30" s="5" t="str">
         <f t="shared" ref="AA30:AC31" si="7">$C31</f>
@@ -3525,90 +3546,90 @@
         <f t="shared" si="7"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR30" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS30" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V31" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W31" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y31" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA31" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3622,90 +3643,90 @@
         <f t="shared" si="7"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
-      <c r="AR31" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS31" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V32" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W32" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y32" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA32" s="5" t="str">
         <f>$C35</f>
@@ -3719,90 +3740,90 @@
         <f>$C35</f>
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR32" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS32" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V33" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W33" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y33" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA33" s="5" t="str">
         <f>$C30</f>
@@ -3817,180 +3838,180 @@
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
     </row>
-    <row r="34" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U34" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V34" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V34" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W34" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y34" s="5">
         <f t="shared" ref="Y34:Y65" si="8">COUNTA(AA34:AJ34)</f>
         <v>3</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR34" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="AS34" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V35" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V35" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W35" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y35" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA35" s="5" t="str">
         <f t="shared" ref="AA35:AC36" si="9">$C36</f>
@@ -4004,90 +4025,90 @@
         <f t="shared" si="9"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
-      <c r="AR35" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS35" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U36" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V36" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W36" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y36" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA36" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4101,90 +4122,90 @@
         <f t="shared" si="9"/>
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR36" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS36" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="6"/>
         <v>DRNG_FUSE_CMEM_K_SDTEND_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V37" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W37" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y37" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA37" s="5" t="str">
         <f>$C34</f>
@@ -4198,53 +4219,53 @@
         <f>$C34</f>
         <v>DRNG_FUSE_CMEM_E_SDTEND_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
-      <c r="AR37" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS37" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA39" s="2" t="str">
         <f>$C17</f>
@@ -4255,375 +4276,375 @@
         <v>TOPDRNG_SDTEND</v>
       </c>
     </row>
-    <row r="40" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>D40&amp;"_"&amp;E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;A40&amp;"_"&amp;H40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
         <v>SBFT_FULLCHIP_FUNC_E_SDTEND_X_CLR_NOM_LFM_0800_NAP_BIST</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V40" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V40" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W40" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB40" s="5" t="str">
         <f>$C41</f>
         <v>SBFT_CORE_FUNC_E_SDTEND_X_CR_NOM_LFM_0800_IDI_BIST</v>
       </c>
     </row>
-    <row r="41" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>D41&amp;"_"&amp;E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;A41&amp;"_"&amp;H41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
         <v>SBFT_CORE_FUNC_E_SDTEND_X_CR_NOM_LFM_0800_IDI_BIST</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V41" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W41" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB41" s="5" t="str">
         <f>$C42</f>
         <v>SBFT_CCF_FUNC_E_SDTEND_X_CLR_NOM_LFM_0800_RING_BIST</v>
       </c>
     </row>
-    <row r="42" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>D42&amp;"_"&amp;E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;A42&amp;"_"&amp;H42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
         <v>SBFT_CCF_FUNC_E_SDTEND_X_CLR_NOM_LFM_0800_RING_BIST</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V42" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="V42" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="W42" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y44" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y45" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA47" s="2" t="str">
         <f>$C60</f>
@@ -4634,86 +4655,86 @@
         <v>SA_LOGIC_AND_BIST_END</v>
       </c>
     </row>
-    <row r="48" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>D48&amp;"_"&amp;E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;A48&amp;"_"&amp;H48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_MLC</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U48" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V48" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V48" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W48" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y48" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA48" s="6" t="str">
         <f t="shared" ref="AA48:AF48" si="10">$C57</f>
@@ -4740,98 +4761,98 @@
         <v>SBFT_X_SAMPLE_E_END_X_X_X_X_MLC_TOPOFF_SAMPLER</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL48" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM48" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>D49&amp;"_"&amp;E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;A49&amp;"_"&amp;H49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V49" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V49" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W49" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y49" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA49" s="6" t="str">
         <f t="shared" ref="AA49:AF50" si="11">$C50</f>
@@ -4858,98 +4879,98 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL49" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM49" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN49" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>D50&amp;"_"&amp;E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;A50&amp;"_"&amp;H50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_MLCDRAGON</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U50" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V50" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V50" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W50" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA50" s="6" t="str">
         <f t="shared" si="11"/>
@@ -4976,249 +4997,249 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="AK50" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL50" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM50" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN50" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO50" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>D51&amp;"_"&amp;E51&amp;"_"&amp;F51&amp;"_"&amp;G51&amp;"_"&amp;A51&amp;"_"&amp;H51&amp;"_"&amp;I51&amp;"_"&amp;J51&amp;"_"&amp;K51&amp;"_"&amp;L51&amp;"_"&amp;M51</f>
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLCDRAGON</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V51" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V51" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W51" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM51" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN51" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO51" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>D53&amp;"_"&amp;E53&amp;"_"&amp;F53&amp;"_"&amp;G53&amp;"_"&amp;A53&amp;"_"&amp;H53&amp;"_"&amp;I53&amp;"_"&amp;J53&amp;"_"&amp;K53&amp;"_"&amp;L53&amp;"_"&amp;M53</f>
         <v>SBFT_CORE_PATMOD_E_END_X_X_X_LFM_0800_DEBUG</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V53" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W53" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y53" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA53" s="6" t="str">
         <f>$C54</f>
@@ -5229,92 +5250,92 @@
         <v>SBFT_CORE_FUNC_E_END_X_CR_NOM_LFM_0800_DEBUG</v>
       </c>
       <c r="AP53" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ53" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="AR53" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>D54&amp;"_"&amp;E54&amp;"_"&amp;F54&amp;"_"&amp;G54&amp;"_"&amp;A54&amp;"_"&amp;H54&amp;"_"&amp;I54&amp;"_"&amp;J54&amp;"_"&amp;K54&amp;"_"&amp;L54&amp;"_"&amp;M54</f>
         <v>SBFT_CORE_FUNC_E_END_X_CR_NOM_LFM_0800_DEBUG</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V54" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W54" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y54" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA54" s="6" t="str">
         <f>$C55</f>
@@ -5325,201 +5346,201 @@
         <v>SBFT_CORE_FUNC_E_END_X_CR_NOM_LFM_0800_DEBUG_SHMOO</v>
       </c>
     </row>
-    <row r="55" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>D55&amp;"_"&amp;E55&amp;"_"&amp;F55&amp;"_"&amp;G55&amp;"_"&amp;A55&amp;"_"&amp;H55&amp;"_"&amp;I55&amp;"_"&amp;J55&amp;"_"&amp;K55&amp;"_"&amp;L55&amp;"_"&amp;M55</f>
         <v>SBFT_CORE_FUNC_E_END_X_CR_NOM_LFM_0800_DEBUG_SHMOO</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V55" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W55" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y55" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y56" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>D57&amp;"_"&amp;E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;A57&amp;"_"&amp;H57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
         <v>SBFT_X_SAMPLE_E_END_X_X_X_X_MLC_TOPOFF_SAMPLER</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U57" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V57" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V57" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W57" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y57" s="6">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z57" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB57" s="6" t="str">
         <f>$C58</f>
@@ -5530,86 +5551,86 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
     </row>
-    <row r="58" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>D58&amp;"_"&amp;E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;A58&amp;"_"&amp;H58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_MLC_TOPOFF</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V58" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V58" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W58" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X58" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y58" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA58" s="6" t="str">
         <f t="shared" ref="AA58:AF58" si="12">$C49</f>
@@ -5636,149 +5657,149 @@
         <v>SBFT_CORE_VMIN_K_END_X_CR_NOM_LFM_0800_CR_SLC</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL58" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN58" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y59" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" s="6" t="str">
         <f>D61&amp;"_"&amp;E61&amp;"_"&amp;F61&amp;"_"&amp;G61&amp;"_"&amp;A61&amp;"_"&amp;H61&amp;"_"&amp;I61&amp;"_"&amp;J61&amp;"_"&amp;K61&amp;"_"&amp;L61&amp;"_"&amp;M61</f>
         <v>SBFT_FULLCHIP_VMIN_K_END_X_CLR_NOM_LFM_0800_CLR_DRAGON</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U61" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V61" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V61" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W61" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y61" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA61" s="6" t="str">
         <f t="shared" ref="AA61:AF61" si="13">$C62</f>
@@ -5805,46 +5826,46 @@
         <v>BIST</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL61" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM61" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN61" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO61" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA62" s="2" t="str">
         <f>$C68</f>
@@ -5855,86 +5876,86 @@
         <v>TOPDRNG</v>
       </c>
     </row>
-    <row r="63" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" s="6" t="str">
         <f>D63&amp;"_"&amp;E63&amp;"_"&amp;F63&amp;"_"&amp;G63&amp;"_"&amp;A63&amp;"_"&amp;H63&amp;"_"&amp;I63&amp;"_"&amp;J63&amp;"_"&amp;K63&amp;"_"&amp;L63&amp;"_"&amp;M63</f>
         <v>SBFT_CORE_FUNC_K_END_X_CR_NOM_LFM_0400_IDI_BIST</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U63" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V63" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V63" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W63" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y63" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z63" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA63" s="6" t="str">
         <f>$C64</f>
@@ -5945,86 +5966,86 @@
         <v>SBFT_CCF_FUNC_K_END_X_CLR_NOM_LFM_0400_RING_BIST</v>
       </c>
     </row>
-    <row r="64" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="6" t="str">
         <f>D64&amp;"_"&amp;E64&amp;"_"&amp;F64&amp;"_"&amp;G64&amp;"_"&amp;A64&amp;"_"&amp;H64&amp;"_"&amp;I64&amp;"_"&amp;J64&amp;"_"&amp;K64&amp;"_"&amp;L64&amp;"_"&amp;M64</f>
         <v>SBFT_CCF_FUNC_K_END_X_CLR_NOM_LFM_0400_RING_BIST</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V64" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V64" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W64" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X64" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y64" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Z64" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA64" s="6" t="str">
         <f>$C66</f>
@@ -6035,86 +6056,86 @@
         <v>SBFT_CCF_FUNC_E_END_X_CLR_NOM_LFM_0800_CBO_BIST</v>
       </c>
     </row>
-    <row r="65" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6" t="str">
         <f>D65&amp;"_"&amp;E65&amp;"_"&amp;F65&amp;"_"&amp;G65&amp;"_"&amp;A65&amp;"_"&amp;H65&amp;"_"&amp;I65&amp;"_"&amp;J65&amp;"_"&amp;K65&amp;"_"&amp;L65&amp;"_"&amp;M65</f>
         <v>SBFT_FULLCHIP_FUNC_E_END_X_CLR_NOM_LFM_0800_NAP_BIST_CTV</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U65" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V65" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V65" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W65" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X65" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y65" s="6">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Z65" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA65" s="6" t="str">
         <f>$C63</f>
@@ -6129,140 +6150,140 @@
         <v>SBFT_CORE_FUNC_K_END_X_CR_NOM_LFM_0400_IDI_BIST</v>
       </c>
       <c r="AP65" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="6" t="str">
         <f>D66&amp;"_"&amp;E66&amp;"_"&amp;F66&amp;"_"&amp;G66&amp;"_"&amp;A66&amp;"_"&amp;H66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"_"&amp;K66&amp;"_"&amp;L66&amp;"_"&amp;M66</f>
         <v>SBFT_CCF_FUNC_E_END_X_CLR_NOM_LFM_0800_CBO_BIST</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U66" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V66" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V66" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W66" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X66" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y66" s="6">
         <f t="shared" ref="Y66:Y97" si="14">COUNTA(AA66:AJ66)</f>
         <v>2</v>
       </c>
       <c r="Z66" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y67" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA68" s="2" t="str">
         <f>$C79</f>
@@ -6273,83 +6294,83 @@
         <v>FUSEDRNG</v>
       </c>
     </row>
-    <row r="69" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="6" t="str">
         <f t="shared" ref="C69:C77" si="15">D69&amp;"_"&amp;E69&amp;"_"&amp;F69&amp;"_"&amp;G69&amp;"_"&amp;A69&amp;"_"&amp;H69&amp;"_"&amp;I69&amp;"_"&amp;J69&amp;"_"&amp;K69&amp;"_"&amp;L69&amp;"_"&amp;M69</f>
         <v>DRNG_NC_SB_K_END_X_CR_NOM_LFM_0800_NOM</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y69" s="6">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA69" s="6" t="str">
         <f>$C73</f>
@@ -6360,83 +6381,83 @@
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
     </row>
-    <row r="70" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_E_END_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X70" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y70" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA70" s="6" t="str">
         <f t="shared" ref="AA70:AC71" si="16">$C71</f>
@@ -6450,87 +6471,87 @@
         <f t="shared" si="16"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR70" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS70" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X71" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y71" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA71" s="6" t="str">
         <f t="shared" si="16"/>
@@ -6544,87 +6565,87 @@
         <f t="shared" si="16"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
-      <c r="AR71" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS71" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W72" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X72" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y72" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA72" s="6" t="str">
         <f>$C74</f>
@@ -6638,90 +6659,90 @@
         <f>$C74</f>
         <v>DRNG_NC_CMEM_E_END_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
-      <c r="AR72" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS72" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U73" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V73" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V73" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W73" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y73" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA73" s="6" t="str">
         <f>$C70</f>
@@ -6736,83 +6757,83 @@
         <v>DRNG_NC_CMEM_E_END_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
     </row>
-    <row r="74" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_E_END_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W74" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X74" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y74" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA74" s="6" t="str">
         <f t="shared" ref="AA74:AC76" si="17">$C75</f>
@@ -6826,87 +6847,87 @@
         <f t="shared" si="17"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR74" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS74" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W75" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X75" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y75" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA75" s="6" t="str">
         <f t="shared" si="17"/>
@@ -6920,87 +6941,87 @@
         <f t="shared" si="17"/>
         <v>DRNG_NC_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
-      <c r="AR75" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS75" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W76" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X76" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y76" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA76" s="6" t="str">
         <f t="shared" si="17"/>
@@ -7014,229 +7035,229 @@
         <f t="shared" si="17"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR76" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS76" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" s="6" t="str">
         <f t="shared" si="15"/>
         <v>DRNG_NC_CMEM_K_END_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W77" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X77" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y77" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR77" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="AS77" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y78" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="6" t="str">
         <f t="shared" ref="C80:C88" si="18">D80&amp;"_"&amp;E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;A80&amp;"_"&amp;H80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
         <v>DRNG_FUSE_SB_K_END_X_CR_NOM_LFM_0800_NOM</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T80" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W80" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X80" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y80" s="6">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA80" s="6" t="str">
         <f>$C84</f>
@@ -7247,83 +7268,83 @@
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
     </row>
-    <row r="81" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C81" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_E_END_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W81" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X81" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y81" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z81" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA81" s="6" t="str">
         <f t="shared" ref="AA81:AC82" si="19">$C82</f>
@@ -7337,87 +7358,87 @@
         <f t="shared" si="19"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR81" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS81" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W82" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X82" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y82" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z82" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA82" s="6" t="str">
         <f t="shared" si="19"/>
@@ -7431,87 +7452,87 @@
         <f t="shared" si="19"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
-      <c r="AR82" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS82" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_COLLISION</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W83" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y83" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z83" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA83" s="6" t="str">
         <f>$C86</f>
@@ -7525,90 +7546,90 @@
         <f>$C86</f>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR83" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS83" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_NOM_LFM_0800_MODECHANGE</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U84" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V84" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="V84" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="W84" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y84" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z84" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA84" s="6" t="str">
         <f>$C81</f>
@@ -7623,174 +7644,174 @@
         <v>DRNG_FUSE_CMEM_E_END_X_CR_NOM_LFM_0800_METRICS</v>
       </c>
     </row>
-    <row r="85" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X85" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y85" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z85" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA85" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR85" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="AS85" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_MIN_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W86" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y86" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z86" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA86" s="6" t="str">
         <f t="shared" ref="AA86:AC87" si="20">$C87</f>
@@ -7804,87 +7825,87 @@
         <f t="shared" si="20"/>
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
-      <c r="AR86" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS86" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C87" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MIN_LFM_0800_METRICS</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W87" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X87" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y87" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z87" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA87" s="6" t="str">
         <f t="shared" si="20"/>
@@ -7898,87 +7919,87 @@
         <f t="shared" si="20"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
-      <c r="AR87" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS87" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" s="6" t="str">
         <f t="shared" si="18"/>
         <v>DRNG_FUSE_CMEM_K_END_X_CR_MAX_LFM_0800_HEALTHCOUNT</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W88" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y88" s="6">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z88" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA88" s="6" t="str">
         <f>$C85</f>
@@ -7992,168 +8013,168 @@
         <f>$C85</f>
         <v>DRNG_FUSE_CMEM_E_END_X_CR_MAX_LFM_0800_METRICS</v>
       </c>
-      <c r="AR88" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AS88" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y89" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y90" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y91" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" t="str">
         <f>D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;A93&amp;"_"&amp;H93&amp;"_"&amp;I93&amp;"_"&amp;J93&amp;"_"&amp;K93&amp;"_"&amp;L93&amp;"_"&amp;M93</f>
         <v>SBFT_CORE_VMIN_K_ENDTFM_X_CR_NOM_TFM_4500_CR_MLC</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U93" t="s">
+        <v>201</v>
+      </c>
+      <c r="V93" t="s">
         <v>200</v>
       </c>
-      <c r="V93" t="s">
-        <v>199</v>
-      </c>
       <c r="W93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y93">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" ref="AA93:AF93" si="21">$C94</f>
@@ -8180,172 +8201,172 @@
         <v>SBFT_FULLCHIP_VMIN_K_ENDTFM_X_CLR_NOM_TFM_4500_CLR_DRAGON</v>
       </c>
       <c r="AK93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" t="str">
         <f>D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;A94&amp;"_"&amp;H94&amp;"_"&amp;I94&amp;"_"&amp;J94&amp;"_"&amp;K94&amp;"_"&amp;L94&amp;"_"&amp;M94</f>
         <v>SBFT_FULLCHIP_VMIN_K_ENDTFM_X_CLR_NOM_TFM_4500_CLR_DRAGON</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U94" t="s">
+        <v>201</v>
+      </c>
+      <c r="V94" t="s">
         <v>200</v>
       </c>
-      <c r="V94" t="s">
-        <v>199</v>
-      </c>
       <c r="W94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y94">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y95" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y96" s="2">
         <f t="shared" si="14"/>
@@ -8354,29 +8375,29 @@
     </row>
     <row r="97" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y97" s="2">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA97" s="2" t="str">
         <f>$C102</f>
@@ -8389,84 +8410,84 @@
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" t="str">
         <f>D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;A98&amp;"_"&amp;H98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"_"&amp;K98&amp;"_"&amp;L98&amp;"_"&amp;M98</f>
         <v>SBFT_CORE_VMIN_K_ENDXFM_X_CR_NOM_HFM_2000_CR_MLC</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U98" t="s">
+        <v>201</v>
+      </c>
+      <c r="V98" t="s">
         <v>200</v>
       </c>
-      <c r="V98" t="s">
-        <v>199</v>
-      </c>
       <c r="W98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y98">
         <f t="shared" ref="Y98:Y107" si="22">COUNTA(AA98:AJ98)</f>
         <v>6</v>
       </c>
       <c r="Z98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA98" t="str">
         <f t="shared" ref="AA98:AF99" si="23">$C99</f>
@@ -8493,101 +8514,101 @@
         <v>SBFT_CORE_VMIN_K_ENDXFM_X_CR_NOM_HFM_2000_CR_SLC</v>
       </c>
       <c r="AK98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99" t="str">
         <f>D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;A99&amp;"_"&amp;H99&amp;"_"&amp;I99&amp;"_"&amp;J99&amp;"_"&amp;K99&amp;"_"&amp;L99&amp;"_"&amp;M99</f>
         <v>SBFT_CORE_VMIN_K_ENDXFM_X_CR_NOM_HFM_2000_CR_SLC</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R99" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U99" t="s">
+        <v>201</v>
+      </c>
+      <c r="V99" t="s">
         <v>200</v>
       </c>
-      <c r="V99" t="s">
-        <v>199</v>
-      </c>
       <c r="W99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y99">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA99" t="str">
         <f t="shared" si="23"/>
@@ -8614,148 +8635,148 @@
         <v>SBFT_FULLCHIP_VMIN_K_ENDXFM_X_CLR_NOM_HFM_2000_CLR_DRAGON</v>
       </c>
       <c r="AK99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C100" t="str">
         <f>D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;A100&amp;"_"&amp;H100&amp;"_"&amp;I100&amp;"_"&amp;J100&amp;"_"&amp;K100&amp;"_"&amp;L100&amp;"_"&amp;M100</f>
         <v>SBFT_FULLCHIP_VMIN_K_ENDXFM_X_CLR_NOM_HFM_2000_CLR_DRAGON</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U100" t="s">
+        <v>201</v>
+      </c>
+      <c r="V100" t="s">
         <v>200</v>
       </c>
-      <c r="V100" t="s">
-        <v>199</v>
-      </c>
       <c r="W100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y100">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y101" s="4">
         <f t="shared" si="22"/>
@@ -8764,117 +8785,117 @@
     </row>
     <row r="102" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y102" s="2">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="Z102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" t="str">
         <f>D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;G103&amp;"_"&amp;A103&amp;"_"&amp;H103&amp;"_"&amp;I103&amp;"_"&amp;J103&amp;"_"&amp;K103&amp;"_"&amp;L103&amp;"_"&amp;M103</f>
         <v>SBFT_CORE_SB_K_ENDXFM_X_CR_MAX_LFM_0800_CR_MLC</v>
       </c>
       <c r="D103" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O103" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P103" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U103" t="s">
+        <v>201</v>
+      </c>
+      <c r="V103" t="s">
         <v>200</v>
       </c>
-      <c r="V103" t="s">
-        <v>199</v>
-      </c>
       <c r="W103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y103">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA103" t="str">
         <f t="shared" ref="AA103:AF103" si="24">$C104</f>
@@ -8901,142 +8922,142 @@
         <v>SBFT_FULLCHIP_SB_K_ENDXFM_X_CLR_MAX_LFM_0800_CLR_DRAGON</v>
       </c>
       <c r="AK103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C104" t="str">
         <f>D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;G104&amp;"_"&amp;A104&amp;"_"&amp;H104&amp;"_"&amp;I104&amp;"_"&amp;J104&amp;"_"&amp;K104&amp;"_"&amp;L104&amp;"_"&amp;M104</f>
         <v>SBFT_FULLCHIP_SB_K_ENDXFM_X_CLR_MAX_LFM_0800_CLR_DRAGON</v>
       </c>
       <c r="D104" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M104" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N104" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O104" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R104" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U104" t="s">
+        <v>201</v>
+      </c>
+      <c r="V104" t="s">
         <v>200</v>
       </c>
-      <c r="V104" t="s">
-        <v>199</v>
-      </c>
       <c r="W104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y104">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Z104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AE104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y105" s="4">
         <f t="shared" si="22"/>
@@ -9045,16 +9066,16 @@
     </row>
     <row r="106" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y106" s="4">
         <f t="shared" si="22"/>
@@ -9063,16 +9084,16 @@
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y107">
         <f t="shared" si="22"/>
